--- a/vertx-env/exec-toolkit/configuration/menu/zero-ambient/APP-85000@zero.rsm.xlsx
+++ b/vertx-env/exec-toolkit/configuration/menu/zero-ambient/APP-85000@zero.rsm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/web-app/vertx-zero/vertx-env/exec-toolkit/configuration/menu/zero-ambient/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C615AD5F-C829-614E-B5D1-C4B49E462886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5321A39-C2AF-9B4C-99AE-FFDFABCBB6C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-59020" yWindow="120" windowWidth="38400" windowHeight="18080" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>{TABLE}</t>
   </si>
@@ -49,9 +49,6 @@
     <t>菜单类型</t>
   </si>
   <si>
-    <t>排序</t>
-  </si>
-  <si>
     <t>显示文字</t>
   </si>
   <si>
@@ -68,9 +65,6 @@
   </si>
   <si>
     <t>type</t>
-  </si>
-  <si>
-    <t>order</t>
   </si>
   <si>
     <t>text</t>
@@ -281,16 +275,14 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -569,20 +561,19 @@
   <dimension ref="A2:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:G2"/>
+      <selection activeCell="C2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="18" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="18" style="3"/>
-    <col min="10" max="16384" width="18" style="2"/>
+    <col min="3" max="3" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="13" style="3"/>
+    <col min="10" max="16384" width="13" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -610,75 +601,69 @@
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>9</v>
-      </c>
+      <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>16</v>
-      </c>
+      <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="8">
-        <v>85000</v>
+      <c r="C5" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C2:F2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vertx-env/exec-toolkit/configuration/menu/zero-ambient/APP-85000@zero.rsm.xlsx
+++ b/vertx-env/exec-toolkit/configuration/menu/zero-ambient/APP-85000@zero.rsm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/web-app/vertx-zero/vertx-env/exec-toolkit/configuration/menu/zero-ambient/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5321A39-C2AF-9B4C-99AE-FFDFABCBB6C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55823C62-3D50-A140-B37E-279C55B401BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-59020" yWindow="120" windowWidth="38400" windowHeight="18080" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>{TABLE}</t>
   </si>
@@ -92,6 +92,15 @@
   </si>
   <si>
     <t>BAG-MENU</t>
+  </si>
+  <si>
+    <t>菜单名称</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>zero.rsm</t>
   </si>
 </sst>
 </file>
@@ -282,7 +291,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,19 +572,20 @@
   <dimension ref="A2:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="A1:XFD1048576"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="13" style="3"/>
-    <col min="10" max="16384" width="13" style="2"/>
+    <col min="4" max="4" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1"/>
+    <col min="6" max="6" width="25" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.6640625" style="3"/>
+    <col min="10" max="16384" width="12.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -601,19 +613,21 @@
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
@@ -624,19 +638,21 @@
       <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="G4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
@@ -648,22 +664,24 @@
         <v>19</v>
       </c>
       <c r="C5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="E5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="F5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="2"/>
+      <c r="G5" s="12"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C2:G2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
